--- a/data/trans_dic/P37A$otros-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P37A$otros-Dificultad-trans_dic.xlsx
@@ -719,23 +719,23 @@
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
-        <v>0.0008360692383188388</v>
+        <v>0.0008326551914114075</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.003056636228547697</v>
+        <v>0.003012370385500141</v>
       </c>
       <c r="K5" s="5" t="inlineStr"/>
       <c r="L5" s="5" t="n">
-        <v>0.0004710618779880273</v>
+        <v>0.0004727410539128424</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0004177993740371058</v>
+        <v>0.000418035837504191</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.002656458735355052</v>
+        <v>0.00257554159901959</v>
       </c>
     </row>
     <row r="6">
@@ -747,33 +747,33 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.004645872787634828</v>
+        <v>0.004242290016159353</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.007359408107685276</v>
+        <v>0.008742321612397743</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0143983751463077</v>
+        <v>0.01627741531398195</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.008620177297919777</v>
+        <v>0.008434414402758184</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.006548894927215172</v>
+        <v>0.00492342589662923</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01460027066926941</v>
+        <v>0.01330585703645577</v>
       </c>
       <c r="K6" s="5" t="inlineStr"/>
       <c r="L6" s="5" t="n">
-        <v>0.005109087964749982</v>
+        <v>0.004658334514603031</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.005037435191273157</v>
+        <v>0.004571888240091238</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.01099620280598197</v>
+        <v>0.01048483034728637</v>
       </c>
     </row>
     <row r="7">
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.006882705616366285</v>
+        <v>0.006626631932699981</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.008935904806666364</v>
+        <v>0.008665670537429993</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.009300663860475877</v>
+        <v>0.008982170664599956</v>
       </c>
     </row>
     <row r="9">
@@ -870,30 +870,30 @@
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.005992449662897559</v>
+        <v>0.005979495939236893</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0260752518417802</v>
+        <v>0.02579385864601957</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.004648995445908977</v>
+        <v>0.004638178654666043</v>
       </c>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.007887818525226277</v>
+        <v>0.007169078790056021</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02255964139692554</v>
+        <v>0.02401568368804759</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.00229636089408533</v>
+        <v>0.002496159602390509</v>
       </c>
       <c r="L9" s="5" t="inlineStr"/>
       <c r="M9" s="5" t="n">
-        <v>0.004358332613172694</v>
+        <v>0.005093970106262768</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02088740915844054</v>
+        <v>0.02080778554187241</v>
       </c>
     </row>
     <row r="10">
@@ -917,7 +917,7 @@
         <v>0.005450918008678574</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.007738618670680961</v>
+        <v>0.00773861867068096</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.001883105190823542</v>
@@ -929,7 +929,7 @@
         <v>0.003608296539435535</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.006620375561765665</v>
+        <v>0.006620375561765666</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.002205266731318533</v>
@@ -941,7 +941,7 @@
         <v>0.004560051892698654</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.007179186771676544</v>
+        <v>0.007179186771676545</v>
       </c>
     </row>
     <row r="11">
@@ -952,16 +952,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0007742830271550493</v>
+        <v>0.0007753290946718948</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.00128549383291855</v>
+        <v>0.001906843009172497</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.003660466567247226</v>
+        <v>0.003871465904775522</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -970,22 +970,22 @@
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.001147057192244971</v>
+        <v>0.001147187546116014</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.003099849861881544</v>
+        <v>0.003451679564455955</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0008387221947625561</v>
+        <v>0.0008370293263133502</v>
       </c>
       <c r="L11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.001903059540861717</v>
+        <v>0.001872064105129914</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.004291905594415403</v>
+        <v>0.004168152322335606</v>
       </c>
     </row>
     <row r="12">
@@ -996,40 +996,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.006734190863894419</v>
+        <v>0.006729025776401598</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.005219221765218396</v>
+        <v>0.005473375110244415</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01447188256947017</v>
+        <v>0.01407589951214662</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01485305785381563</v>
+        <v>0.01472840369208439</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.006356639781495184</v>
+        <v>0.005727026512242673</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.006721988189692303</v>
+        <v>0.00670961598469415</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01038469588582588</v>
+        <v>0.00967465480533267</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01169089386897811</v>
+        <v>0.01171879706063718</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.004938121778263104</v>
+        <v>0.004928609416136165</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.004446423236974909</v>
+        <v>0.004209843879864136</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.009217515832807993</v>
+        <v>0.009142825096657582</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01121979046900963</v>
+        <v>0.01118739227646034</v>
       </c>
     </row>
     <row r="13">
@@ -1092,10 +1092,10 @@
       </c>
       <c r="D14" s="5" t="inlineStr"/>
       <c r="E14" s="5" t="n">
-        <v>0.00404526137752476</v>
+        <v>0.004073696650929875</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.004395276569507478</v>
+        <v>0.00466859380812648</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.003877460958320143</v>
+        <v>0.003868783689746355</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.006999008117194512</v>
+        <v>0.007001742016444526</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.005454179662439581</v>
+        <v>0.005837060718209501</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0073558673479702</v>
+        <v>0.007010905787318849</v>
       </c>
     </row>
     <row r="15">
@@ -1130,38 +1130,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01040219015020797</v>
+        <v>0.008524116672825271</v>
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.02460497895229861</v>
+        <v>0.02580057408026043</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01858505615958565</v>
+        <v>0.01891188324099604</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02099699441659387</v>
+        <v>0.02455738304907978</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01048424831203842</v>
+        <v>0.0130018944786286</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0255725700020992</v>
+        <v>0.02638796451500284</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02675690145505486</v>
+        <v>0.02676410652013164</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.009691826462587328</v>
+        <v>0.009689053060411016</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.005303120696421944</v>
+        <v>0.005872477891739473</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02006105923718267</v>
+        <v>0.02037730534817604</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.01880969500755276</v>
+        <v>0.01816491087194774</v>
       </c>
     </row>
     <row r="16">
@@ -1185,7 +1185,7 @@
         <v>0.003735633116559679</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.009442448262661633</v>
+        <v>0.009442448262661631</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.00125866229563145</v>
@@ -1220,40 +1220,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0003210794394376355</v>
+        <v>0.0002704610596023869</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.001916934093506377</v>
+        <v>0.001844884441412331</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.006252814174567846</v>
+        <v>0.0064324268468894</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0002991175286080319</v>
+        <v>0.0003982468703675614</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0005531149111997106</v>
+        <v>0.0005736094152577881</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.001754851088582528</v>
+        <v>0.00174856427435691</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.007856237112355629</v>
+        <v>0.007858919551278496</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0005547515365451051</v>
+        <v>0.0005711492730313243</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0004392816654131107</v>
+        <v>0.0004479064612023891</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.00231684345894069</v>
+        <v>0.002384483817765986</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.00782891889245395</v>
+        <v>0.007922390116029267</v>
       </c>
     </row>
     <row r="18">
@@ -1264,40 +1264,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.002796665736159817</v>
+        <v>0.0026784818075744</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.001816955755106546</v>
+        <v>0.001979052904207417</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.006455248390071983</v>
+        <v>0.006702457154434326</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01379480202578249</v>
+        <v>0.01403256477721943</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.003013150207193036</v>
+        <v>0.003520987536458939</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.00328236203658909</v>
+        <v>0.003580708645387109</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.005923534612031448</v>
+        <v>0.005776602382218639</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01472417560958848</v>
+        <v>0.01464997793001858</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.002266109998779681</v>
+        <v>0.002359713460295397</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.001931773900766764</v>
+        <v>0.002085090991245451</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.005274513441703671</v>
+        <v>0.005280007074943442</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.01261178288665911</v>
+        <v>0.01283503719175497</v>
       </c>
     </row>
     <row r="19">
@@ -1579,23 +1579,23 @@
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1906</v>
+        <v>1878</v>
       </c>
       <c r="K6" s="6" t="inlineStr"/>
       <c r="L6" s="6" t="n">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>998</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2981</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="7">
@@ -1607,33 +1607,33 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>4850</v>
+        <v>4429</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>8301</v>
+        <v>9861</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7181</v>
+        <v>8118</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>9654</v>
+        <v>9446</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>8249</v>
+        <v>6201</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>9104</v>
+        <v>8297</v>
       </c>
       <c r="K7" s="6" t="inlineStr"/>
       <c r="L7" s="6" t="n">
-        <v>11055</v>
+        <v>10080</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>12027</v>
+        <v>10916</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>12341</v>
+        <v>11767</v>
       </c>
     </row>
     <row r="8">
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6608</v>
+        <v>6362</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>9971</v>
+        <v>9670</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>19308</v>
+        <v>18647</v>
       </c>
     </row>
     <row r="11">
@@ -1774,30 +1774,30 @@
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>5446</v>
+        <v>5434</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>25036</v>
+        <v>24766</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4916</v>
+        <v>4905</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>7939</v>
+        <v>7215</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>25173</v>
+        <v>26798</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>4904</v>
+        <v>5330</v>
       </c>
       <c r="L11" s="6" t="inlineStr"/>
       <c r="M11" s="6" t="n">
-        <v>8348</v>
+        <v>9756</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>43362</v>
+        <v>43197</v>
       </c>
     </row>
     <row r="12">
@@ -1900,16 +1900,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1059</v>
+        <v>1571</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3831</v>
+        <v>4051</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -1918,22 +1918,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3248</v>
+        <v>3616</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="L14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3035</v>
+        <v>2986</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>8988</v>
+        <v>8729</v>
       </c>
     </row>
     <row r="15">
@@ -1944,40 +1944,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7553</v>
+        <v>7547</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4620</v>
+        <v>4845</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11921</v>
+        <v>11595</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>15543</v>
+        <v>15413</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6318</v>
+        <v>5692</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5887</v>
+        <v>5876</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8007</v>
+        <v>7460</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>12248</v>
+        <v>12277</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>10447</v>
+        <v>10427</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>7830</v>
+        <v>7413</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>14700</v>
+        <v>14581</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>23496</v>
+        <v>23428</v>
       </c>
     </row>
     <row r="16">
@@ -2084,10 +2084,10 @@
       </c>
       <c r="D18" s="6" t="inlineStr"/>
       <c r="E18" s="6" t="n">
-        <v>2050</v>
+        <v>2064</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4289</v>
+        <v>4556</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -2096,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>6372</v>
+        <v>6374</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
@@ -2108,10 +2108,10 @@
         <v>0</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>5435</v>
+        <v>5816</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>13875</v>
+        <v>13224</v>
       </c>
     </row>
     <row r="19">
@@ -2122,38 +2122,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>4652</v>
+        <v>3812</v>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>12467</v>
+        <v>13073</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>18138</v>
+        <v>18457</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>7163</v>
+        <v>8378</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>4747</v>
+        <v>5886</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>12523</v>
+        <v>12922</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>24358</v>
+        <v>24365</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>7641</v>
+        <v>7638</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>5069</v>
+        <v>5613</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>19989</v>
+        <v>20304</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>35480</v>
+        <v>34264</v>
       </c>
     </row>
     <row r="20">
@@ -2256,40 +2256,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1037</v>
+        <v>874</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6455</v>
+        <v>6212</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>21768</v>
+        <v>22393</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>992</v>
+        <v>1320</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1960</v>
+        <v>2032</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>6189</v>
+        <v>6167</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>29048</v>
+        <v>29058</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3631</v>
+        <v>3739</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>3054</v>
+        <v>3114</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>15972</v>
+        <v>16439</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>56201</v>
+        <v>56872</v>
       </c>
     </row>
     <row r="23">
@@ -2300,40 +2300,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>9036</v>
+        <v>8654</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>6194</v>
+        <v>6747</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>21737</v>
+        <v>22569</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>48024</v>
+        <v>48851</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>9988</v>
+        <v>11672</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>11628</v>
+        <v>12685</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>20891</v>
+        <v>20373</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>54441</v>
+        <v>54167</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>14833</v>
+        <v>15446</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>13429</v>
+        <v>14495</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>36363</v>
+        <v>36401</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>90536</v>
+        <v>92139</v>
       </c>
     </row>
     <row r="24">
